--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\input sheet for scenario 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF48A140-3E8E-4724-8765-AD76B2290C10}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{306391EB-83DD-40CC-BCD7-486086CBAFCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCourtOrderAEO1971civildebt" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
@@ -64,9 +64,6 @@
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
-    <t>GeneralTaxRateWeekly</t>
-  </si>
-  <si>
     <t>ProcessPayrollForWeeklyTax</t>
   </si>
   <si>
@@ -152,12 +149,22 @@
   </si>
   <si>
     <t>Payroll Suite CourtOrder AEO1971civildebt201819.xlsx</t>
+  </si>
+  <si>
+    <t>TestCourtOrderAEO1971civildebt</t>
+  </si>
+  <si>
+    <t>Current pay run</t>
+  </si>
+  <si>
+    <t>COURTORDERS_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,51 +217,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -271,10 +278,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -309,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +473,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -475,13 +482,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -491,7 +498,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -500,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -509,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,12 +526,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -555,7 +562,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -574,7 +581,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -586,19 +593,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,23 +622,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -645,7 +652,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -672,201 +679,187 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -878,46 +871,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -926,52 +919,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -983,37 +976,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -1021,8 +1014,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{306391EB-83DD-40CC-BCD7-486086CBAFCB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B653D68-436A-4593-80F2-8E5CD86E7EFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCourtOrderAEO1971civildebt" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCourtOrderAEO1971civildebt" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
@@ -164,7 +164,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,51 +216,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -278,10 +277,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -316,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +472,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -482,13 +481,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +497,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -507,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,7 +515,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,12 +525,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -562,7 +561,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -581,7 +580,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -593,19 +592,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -636,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -679,35 +678,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -760,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -803,13 +802,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -818,16 +817,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -871,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -905,12 +904,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -919,17 +918,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -976,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1014,8 +1013,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B653D68-436A-4593-80F2-8E5CD86E7EFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{1619897F-558B-47CE-AE66-E9E47D617940}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCourtOrderAEO1971civildebt" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCourtOrderAEO1971civildebt" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>TC</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>This script executes the query to accumulated ytd in payroll</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>EmployerName</t>
@@ -164,6 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,51 +214,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -315,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +470,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -481,13 +479,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -497,7 +495,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -506,7 +504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,7 +513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,12 +523,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -561,7 +559,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -580,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -592,19 +590,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -629,15 +627,15 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -678,35 +676,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -714,40 +712,40 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -759,56 +757,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -817,48 +812,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -870,46 +865,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -918,52 +913,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -975,37 +970,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
@@ -1013,8 +1008,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{1619897F-558B-47CE-AE66-E9E47D617940}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D720259E-6EAD-4A78-B082-760CEC593C61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCourtOrderAEO1971civildebt" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="TCOAEO1971civildebtSepPayroll" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>TC</t>
   </si>
@@ -148,20 +148,19 @@
     <t>Payroll Suite CourtOrder AEO1971civildebt201819.xlsx</t>
   </si>
   <si>
-    <t>TestCourtOrderAEO1971civildebt</t>
-  </si>
-  <si>
     <t>Current pay run</t>
   </si>
   <si>
     <t>COURTORDERS_Payroll</t>
+  </si>
+  <si>
+    <t>TCOAEO1971civildebtSepPayroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,51 +213,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -275,10 +274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -313,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +469,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -479,13 +478,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -495,7 +494,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -504,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -513,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -523,12 +522,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -559,7 +558,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -578,7 +577,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -590,19 +589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -633,9 +632,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -676,35 +675,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -757,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -774,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>36</v>
@@ -790,20 +789,20 @@
         <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -812,16 +811,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -865,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -899,12 +898,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -913,17 +912,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -970,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1008,8 +1007,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D720259E-6EAD-4A78-B082-760CEC593C61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F820C27-6D99-4C3D-97FE-E6A8FE5CA7D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
     <sheet name="TCOAEO1971civildebtSepPayroll" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TCOAEO1971civildebtOctPayroll" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -64,9 +64,6 @@
     <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
   </si>
   <si>
-    <t>ProcessPayrollForWeeklyTax</t>
-  </si>
-  <si>
     <t>ExecuteQuery</t>
   </si>
   <si>
@@ -155,6 +152,33 @@
   </si>
   <si>
     <t>TCOAEO1971civildebtSepPayroll</t>
+  </si>
+  <si>
+    <t>TCOAEO1971civildebtOctPayroll</t>
+  </si>
+  <si>
+    <t>October-2018</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTMN COURT ORDER REPORTS</t>
+  </si>
+  <si>
+    <t>ExpectedResultRowNumOfTestResultFile</t>
+  </si>
+  <si>
+    <t>ActualResultRowNumOfTestResultFile</t>
+  </si>
+  <si>
+    <t>TestRemarkRowNumOfTestResultFile</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -217,7 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,6 +273,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -592,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +647,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -634,7 +661,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -648,7 +675,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -684,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,40 +738,40 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -758,38 +785,40 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>4</v>
@@ -803,111 +832,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="11">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,85 +970,104 @@
     <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F820C27-6D99-4C3D-97FE-E6A8FE5CA7D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{BA5C2FF3-A9CF-4CD1-9233-254A3A3F77D3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="TCOAEO1971civildebtSepPayroll" sheetId="2" r:id="rId2"/>
-    <sheet name="TCOAEO1971civildebtOctPayroll" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="TCOAEO1971civildebtSepPayroll" r:id="rId2" sheetId="2"/>
+    <sheet name="TCOAEO1971civildebtOctPayroll" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -160,9 +160,6 @@
     <t>October-2018</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTMN COURT ORDER REPORTS</t>
   </si>
   <si>
@@ -179,12 +176,19 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_CourtOrderScenarios 201819\\201819 Payroll Court order and Student Loan Test result.xlsx</t>
+  </si>
+  <si>
+    <t>PayFrequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,54 +241,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,10 +308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +503,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -505,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -521,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -530,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,12 +556,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -585,7 +592,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -604,7 +611,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -616,19 +623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -659,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -702,88 +709,88 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row customFormat="1" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -799,7 +806,7 @@
       <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -809,50 +816,56 @@
         <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,17 +905,26 @@
       <c r="M1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -918,7 +940,7 @@
       <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -928,10 +950,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>25</v>
@@ -939,41 +961,52 @@
       <c r="L2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1008,13 +1041,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1026,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1062,10 +1095,10 @@
         <v>26</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>4</v>
@@ -1073,8 +1106,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{BA5C2FF3-A9CF-4CD1-9233-254A3A3F77D3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{6E59F39F-1D73-4C48-8617-A9B3D60CE72A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
     <sheet name="TCOAEO1971civildebtSepPayroll" r:id="rId2" sheetId="2"/>
     <sheet name="TCOAEO1971civildebtOctPayroll" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="TestReportForOctPayroll" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>TestReports</t>
-  </si>
-  <si>
     <t>compares the report with hmrc data</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>PayFrequency</t>
+  </si>
+  <si>
+    <t>TestReportForOctPayroll</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
     </row>
     <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -668,10 +668,10 @@
     </row>
     <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -745,40 +745,40 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>2</v>
@@ -792,43 +792,43 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>4</v>
@@ -870,49 +870,49 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
@@ -926,52 +926,52 @@
     </row>
     <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11">
         <v>12000</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>4</v>
@@ -988,7 +988,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,46 +1008,46 @@
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1061,44 +1061,44 @@
     </row>
     <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{6E59F39F-1D73-4C48-8617-A9B3D60CE72A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{B0962FC9-341D-417E-AE86-87AB3FF8E4A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
     <workbookView activeTab="3" firstSheet="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -245,7 +245,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -280,9 +280,6 @@
     </xf>
     <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,7 +624,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +807,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>38</v>
@@ -830,7 +827,7 @@
       <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -845,7 +842,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +985,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{B0962FC9-341D-417E-AE86-87AB3FF8E4A5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CEA951E-D8C8-4EA0-BF2C-3D70904C69C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="TCOAEO1971civildebtSepPayroll" r:id="rId2" sheetId="2"/>
-    <sheet name="TCOAEO1971civildebtOctPayroll" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReportForOctPayroll" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="TCOAEO1971civildebtSepPayroll" sheetId="2" r:id="rId2"/>
+    <sheet name="TCOAEO1971civildebtOctPayroll" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReportForOctPayroll" sheetId="5" r:id="rId4"/>
+    <sheet name="TCOAEO1971civildebtNovPayroll" sheetId="7" r:id="rId5"/>
+    <sheet name="TestReportForNovPayroll" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -52,30 +54,12 @@
     <t>Error</t>
   </si>
   <si>
-    <t>compares the report with hmrc data</t>
-  </si>
-  <si>
-    <t>This processes payroll</t>
-  </si>
-  <si>
-    <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
-  </si>
-  <si>
-    <t>ExecuteQuery</t>
-  </si>
-  <si>
-    <t>This script executes the query to accumulated ytd in payroll</t>
-  </si>
-  <si>
     <t>EmployerName</t>
   </si>
   <si>
     <t>Payrolid</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>MonthName</t>
   </si>
   <si>
@@ -94,9 +78,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -124,18 +105,9 @@
     <t>DONT TOUCH AUTO COURTORDERS EMPLOYER</t>
   </si>
   <si>
-    <t>COSL_Payroll</t>
-  </si>
-  <si>
     <t>September-2018</t>
   </si>
   <si>
-    <t>Payroll Suite CourtOrder AEO1971civildebt 201819.xlsx</t>
-  </si>
-  <si>
-    <t>Need to create the Report in the framework itself</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -182,13 +154,51 @@
   </si>
   <si>
     <t>TestReportForOctPayroll</t>
+  </si>
+  <si>
+    <t>TCOAEO1971civildebtNovPayroll</t>
+  </si>
+  <si>
+    <t>TestReportForNovPayroll</t>
+  </si>
+  <si>
+    <t>This script sets NI, Annual salary and Pay frequency And processes sep Draft payroll</t>
+  </si>
+  <si>
+    <t>This script sets NI, Annual salary and Pay frequency And processes Oct Draft payroll</t>
+  </si>
+  <si>
+    <t>This script sets NI, Annual salary and Pay frequency And processes Nov Draft payroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processess the october report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processess the November report </t>
+  </si>
+  <si>
+    <t>November-2018</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTMN COURT ORDER REPORTS2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,54 +251,48 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -305,10 +309,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -343,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +504,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -509,13 +513,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -525,7 +529,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -534,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,12 +557,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -589,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -608,7 +612,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -620,19 +624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,12 +653,12 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -663,12 +667,12 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -682,7 +686,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -691,12 +695,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -705,77 +709,217 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>2</v>
@@ -787,324 +931,466 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11">
-        <v>12000</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="13" max="16" customWidth="true" width="27.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11">
-        <v>12000</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="48.75" r="2" s="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B60E1B-7C1E-46FB-AF6F-6E50BEA92916}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF572E-8A6B-4FFC-B224-5849EFAEF986}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CEA951E-D8C8-4EA0-BF2C-3D70904C69C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{6CEA951E-D8C8-4EA0-BF2C-3D70904C69C5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" firstSheet="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="TCOAEO1971civildebtSepPayroll" sheetId="2" r:id="rId2"/>
-    <sheet name="TCOAEO1971civildebtOctPayroll" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReportForOctPayroll" sheetId="5" r:id="rId4"/>
-    <sheet name="TCOAEO1971civildebtNovPayroll" sheetId="7" r:id="rId5"/>
-    <sheet name="TestReportForNovPayroll" sheetId="8" r:id="rId6"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="TCOAEO1971civildebtSepPayroll" r:id="rId2" sheetId="2"/>
+    <sheet name="TCOAEO1971civildebtOctPayroll" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReportForOctPayroll" r:id="rId4" sheetId="5"/>
+    <sheet name="TCOAEO1971civildebtNovPayroll" r:id="rId5" sheetId="7"/>
+    <sheet name="TestReportForNovPayroll" r:id="rId6" sheetId="8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -199,6 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,48 +252,48 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,10 +310,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -347,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +505,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -513,13 +514,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,12 +558,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -593,7 +594,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -612,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,10 +634,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -667,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -695,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -724,13 +725,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -739,23 +740,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -805,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -850,13 +851,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -865,23 +866,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -931,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -976,13 +977,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -991,25 +992,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1121,15 +1122,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B60E1B-7C1E-46FB-AF6F-6E50BEA92916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B60E1B-7C1E-46FB-AF6F-6E50BEA92916}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1138,23 +1139,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1245,13 +1246,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF572E-8A6B-4FFC-B224-5849EFAEF986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF572E-8A6B-4FFC-B224-5849EFAEF986}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
@@ -1260,26 +1261,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{6CEA951E-D8C8-4EA0-BF2C-3D70904C69C5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{1C5B9524-444C-4B99-918C-4E66528EF4EF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
+    <workbookView activeTab="2" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,10 +876,11 @@
     <col min="8" max="8" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="30" r="1" s="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -986,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF572E-8A6B-4FFC-B224-5849EFAEF986}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder AEO1971civildebt201819.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -618,7 +618,7 @@
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
